--- a/data/cascade-simple-births.xlsx
+++ b/data/cascade-simple-births.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjarvis/git/tb-ucl/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14445" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="1" r:id="rId1"/>
@@ -20,9 +15,6 @@
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -31,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="104">
   <si>
     <t>Code Label</t>
   </si>
@@ -336,10 +328,13 @@
     <t>birth_label</t>
   </si>
   <si>
-    <t>Number births</t>
-  </si>
-  <si>
     <t>Number of births</t>
+  </si>
+  <si>
+    <t>death_label</t>
+  </si>
+  <si>
+    <t>Deaths</t>
   </si>
 </sst>
 </file>
@@ -762,14 +757,18 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -893,10 +892,10 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="5.83203125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="9" width="5.85546875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1026,26 +1025,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
     <col min="8" max="8" width="13" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="2"/>
+    <col min="9" max="9" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1074,7 +1073,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1100,7 +1099,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -1126,7 +1125,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -1152,7 +1151,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1182,7 +1181,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1210,7 +1209,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -1246,7 +1245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -1271,35 +1270,53 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="J9" s="7"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="O9" t="s">
-        <v>100</v>
-      </c>
-      <c r="P9" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q9" s="10" t="s">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="R9" s="10">
-        <v>2</v>
-      </c>
-      <c r="S9" s="8"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="V9" s="9"/>
-      <c r="W9" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="J10" s="2"/>
+      <c r="D10" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1310,17 +1327,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="119.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="119.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1584,7 +1601,7 @@
         <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="7">
         <v>100</v>
@@ -1610,9 +1627,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
